--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalis\Desktop\DSA-Problem-solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050C5840-99CF-4213-9D23-8C773520E715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5028DD-B85E-4B36-BE2B-6295BD87BB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1860,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1937,7 +1937,9 @@
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="21">
       <c r="A10" s="5" t="s">
@@ -1957,7 +1959,9 @@
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="21">
       <c r="A12" s="5" t="s">
